--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE188D93-1E1B-374F-B8DF-3F2D050F302F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,90 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>김지수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +263,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +675,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,13 +787,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeso\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE188D93-1E1B-374F-B8DF-3F2D050F302F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,15 +87,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
   <si>
     <t>PSP: Personal Software Process</t>
-  </si>
-  <si>
-    <t>팀명:</t>
   </si>
   <si>
     <r>
@@ -220,11 +216,161 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>팀명:화브리타임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문진행</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
@@ -671,22 +817,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.6328125" customWidth="1"/>
+    <col min="7" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -708,14 +854,14 @@
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
@@ -724,22 +870,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -747,7 +893,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="8">
         <v>43716</v>
       </c>
@@ -764,10 +910,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.5">
       <c r="A7" s="8">
         <v>43716</v>
       </c>
@@ -784,38 +930,50 @@
         <v>120</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
-        <v>43726</v>
-      </c>
-      <c r="B8" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.75</v>
       </c>
-      <c r="C8" s="16">
-        <v>0.83333333333333337</v>
+      <c r="C8" s="10">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="17">
+        <v>60</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13">
+      <c r="A9" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="13">
+      <c r="F9" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.5">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -823,7 +981,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="13">
+    <row r="11" spans="1:11" ht="12.5">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -831,7 +989,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="13">
+    <row r="12" spans="1:11" ht="12.5">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -839,7 +997,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -847,7 +1005,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+    <row r="14" spans="1:11" ht="12.5">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -855,7 +1013,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="13">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -863,7 +1021,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="13">
+    <row r="16" spans="1:11" ht="12.5">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -871,7 +1029,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="12.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -879,23 +1037,23 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="12.5">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="11"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="11"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="13">
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -903,13 +1061,13 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="12.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="13">
       <c r="A22" s="15"/>
@@ -917,9 +1075,9 @@
       <c r="C22" s="16"/>
       <c r="D22" s="11"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -927,7 +1085,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -935,7 +1093,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -951,7 +1109,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -959,7 +1117,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -967,7 +1125,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -975,7 +1133,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -983,7 +1141,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -991,7 +1149,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -999,7 +1157,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="12.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1007,7 +1165,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="12.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1015,7 +1173,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="12.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1023,23 +1181,23 @@
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="12.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:6" ht="12.5">
+      <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="12.5">
       <c r="A38" s="18"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1047,9 +1205,13 @@
       <c r="E38" s="11"/>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+    <row r="39" spans="1:6" ht="12.5">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="D40" s="4"/>
@@ -1294,6 +1456,10 @@
     <row r="100" spans="4:5" ht="12.75" customHeight="1">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1307,14 +1473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1425,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1543,14 +1709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1661,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1779,14 +1945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1897,14 +2063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2015,14 +2181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2128,19 +2294,19 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2251,14 +2417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2369,14 +2535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2487,14 +2653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2605,14 +2771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2723,14 +2889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2841,14 +3007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2959,14 +3125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -363,6 +363,359 @@
         <charset val="129"/>
       </rPr>
       <t>설문진행</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유스케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이아그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유스케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유스케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -821,7 +1174,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -973,29 +1326,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+    <row r="10" spans="1:11" ht="13">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>90</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>150</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13">
+      <c r="A12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="2260" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -707,6 +707,213 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유스케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유스케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스페시피케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할당받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC1) </t>
     </r>
     <r>
       <rPr>
@@ -1174,7 +1381,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1386,21 +1593,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+    <row r="13" spans="1:11" ht="13">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>60</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13">
+      <c r="A14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>90</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2260" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="2860" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -923,6 +923,87 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1381,7 +1462,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1601,13 +1682,13 @@
         <v>0.875</v>
       </c>
       <c r="C13" s="16">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="17">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>23</v>
@@ -1634,12 +1715,24 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>180</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12.5">
       <c r="A16" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2860" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -995,6 +995,296 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>틀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ppt)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할당받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Apparatus) GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ppt)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UseCase Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호보완</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
     </r>
     <r>
       <rPr>
@@ -1461,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1734,29 +2024,65 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+    <row r="16" spans="1:11" ht="13">
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>40</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>90</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>120</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13">
       <c r="A19" s="15"/>
@@ -2177,11 +2503,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CAdapted from A Discipline for Software Engineering,by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="4060" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1294,6 +1294,235 @@
         <charset val="129"/>
       </rPr>
       <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Specification 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1751,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2085,28 +2314,64 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="13">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>180</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="A20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>120</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13">
+      <c r="A21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>120</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="13">
       <c r="A22" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4060" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="4660" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -994,38 +994,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>11</t>
     </r>
     <r>
@@ -1524,6 +1492,240 @@
       </rPr>
       <t>검토</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MSDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키워드입력받아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받아오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크롤러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤러개발 초기 환경 구축 및 구상</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1980,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2235,7 +2437,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B15" s="16">
         <v>0.875</v>
@@ -2255,7 +2457,7 @@
     </row>
     <row r="16" spans="1:11" ht="13">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="16">
         <v>2.0833333333333332E-2</v>
@@ -2270,12 +2472,12 @@
         <v>40</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13">
       <c r="A17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="16">
         <v>0.75</v>
@@ -2290,12 +2492,12 @@
         <v>90</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="16">
         <v>0.83333333333333337</v>
@@ -2310,12 +2512,12 @@
         <v>120</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13">
       <c r="A19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="16">
         <v>0.75</v>
@@ -2330,12 +2532,12 @@
         <v>180</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="16">
         <v>0.75</v>
@@ -2350,12 +2552,12 @@
         <v>120</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13">
       <c r="A21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="16">
         <v>0.41666666666666669</v>
@@ -2370,24 +2572,48 @@
         <v>120</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13">
+      <c r="A22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>60</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="B23" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" s="11">
+        <v>180</v>
+      </c>
+      <c r="E23" s="17">
+        <v>300</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4660" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="5260" windowWidth="16460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1726,6 +1726,299 @@
   </si>
   <si>
     <t>크롤러개발 초기 환경 구축 및 구상</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수님께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백받기</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Squence Diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: ppt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, er-diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2182,18 +2475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="40.6328125" customWidth="1"/>
+    <col min="6" max="6" width="65.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2616,28 +2909,64 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>60</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13">
+      <c r="A25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>300</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.9375</v>
+      </c>
+      <c r="D26" s="11">
+        <v>30</v>
+      </c>
+      <c r="E26" s="17">
+        <v>330</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeso\git\ChemicalManagementApplication\PSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508BC134-A18A-4E92-AB57-68DFD4BC16F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5260" windowWidth="16460" windowHeight="16120"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2021,17 +2022,94 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Flask라이브러리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 공부를 통해 개발한 웹크롤러 서버와 연결할 환경 구축</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 18일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Front end 개발을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 React 공부 및 실습</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2082,6 +2160,18 @@
     <font>
       <sz val="10"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2472,22 +2562,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="65.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -2548,7 +2638,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13">
+    <row r="6" spans="1:11" ht="13.8">
       <c r="A6" s="8">
         <v>43716</v>
       </c>
@@ -2568,7 +2658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.5">
+    <row r="7" spans="1:11" ht="13.2">
       <c r="A7" s="8">
         <v>43716</v>
       </c>
@@ -2588,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -2608,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="21">
         <v>43726</v>
       </c>
@@ -2628,7 +2718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13">
+    <row r="10" spans="1:11" ht="13.8">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13">
+    <row r="11" spans="1:11" ht="13.8">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13">
+    <row r="12" spans="1:11" ht="13.8">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +2778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -2708,7 +2798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13">
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13">
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
@@ -2768,7 +2858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="15" t="s">
         <v>28</v>
       </c>
@@ -2788,7 +2878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
@@ -2808,7 +2898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
@@ -2848,7 +2938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
@@ -2868,7 +2958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +2978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +3018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="15" t="s">
         <v>44</v>
       </c>
@@ -2969,22 +3059,46 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.5">
+      <c r="A27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>270</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8">
+      <c r="A28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>210</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2992,7 +3106,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5">
+    <row r="30" spans="1:6" ht="13.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -3000,7 +3114,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5">
+    <row r="31" spans="1:6" ht="13.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -3008,7 +3122,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5">
+    <row r="32" spans="1:6" ht="13.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3016,7 +3130,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5">
+    <row r="33" spans="1:6" ht="13.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3024,7 +3138,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5">
+    <row r="34" spans="1:6" ht="13.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3032,7 +3146,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5">
+    <row r="35" spans="1:6" ht="13.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -3040,7 +3154,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5">
+    <row r="36" spans="1:6" ht="13.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -3048,7 +3162,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5">
+    <row r="37" spans="1:6" ht="13.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -3056,7 +3170,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5">
+    <row r="38" spans="1:6" ht="13.2">
       <c r="A38" s="18"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -3064,7 +3178,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5">
+    <row r="39" spans="1:6" ht="13.2">
       <c r="A39" s="18"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -3332,14 +3446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3450,14 +3564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3568,14 +3682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3686,14 +3800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3804,14 +3918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3922,14 +4036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4040,14 +4154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4158,14 +4272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4276,14 +4390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4394,14 +4508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4512,14 +4626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4630,14 +4744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4748,14 +4862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4866,14 +4980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4984,14 +5098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6328125" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508BC134-A18A-4E92-AB57-68DFD4BC16F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F404A-3B1B-4BF4-AE79-547BCA4BF245}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2071,6 +2071,45 @@
   </si>
   <si>
     <r>
+      <t>Front end 개발을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 React 공부 및 실습</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 18일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>11월</t>
     </r>
     <r>
@@ -2080,36 +2119,644 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 18일</t>
+      <t xml:space="preserve"> 20일</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Front end 개발을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위한 React 공부 및 실습</t>
-    </r>
+    <t>어플기능 중 2번 Apparatus 를 java script로 구현 시작 (모여서)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 21일 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플기능 중 2번 Apparatus 를 java script로 구현 계속</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>22일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플기능 중 2번 Apparatus 구현 한 것 모여서 취합하고 계속 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>24일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 못다 해결한 오류 해결하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 5일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 아이디어 스케치</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그려서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Class Design Relationship </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2175,6 +2822,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2184,7 +2850,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2207,19 +2873,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2230,7 +2910,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,7 +2920,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2249,12 +2927,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2563,16 +3270,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
@@ -2584,855 +3291,1140 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8">
-      <c r="A6" s="8">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>90</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
+      <c r="A7" s="28">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B7" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="9">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.2">
-      <c r="A7" s="8">
+    <row r="8" spans="1:11" ht="13.2">
+      <c r="A8" s="28">
         <v>43716</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="7">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="9">
         <v>120</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.8">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:11" ht="13.2" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B9" s="7">
         <v>0.75</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="13">
         <v>60</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.8">
-      <c r="A9" s="21">
+    <row r="10" spans="1:11" ht="13.2" customHeight="1">
+      <c r="A10" s="28">
         <v>43726</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B10" s="12">
         <v>0.75</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="13">
         <v>120</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F10" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.8">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:11" ht="13.8">
+      <c r="A11" s="29">
+        <v>43727</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D11" s="21">
+        <v>45</v>
+      </c>
+      <c r="E11" s="25">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8">
+      <c r="A12" s="29">
+        <v>43732</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>75</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
+      <c r="A13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B13" s="12">
         <v>0.75</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C13" s="12">
         <v>0.8125</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E13" s="13">
         <v>90</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="15" t="s">
+    <row r="14" spans="1:11" ht="13.8">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B14" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C14" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E14" s="13">
         <v>150</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F14" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.8">
-      <c r="A12" s="15" t="s">
+    <row r="15" spans="1:11" ht="13.8">
+      <c r="A15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B15" s="12">
         <v>0.8125</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C15" s="12">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E15" s="13">
         <v>60</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.8">
-      <c r="A13" s="15" t="s">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B16" s="12">
         <v>0.875</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C16" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E16" s="13">
         <v>120</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.8">
-      <c r="A14" s="15" t="s">
+    <row r="17" spans="1:6" ht="13.8">
+      <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B17" s="12">
         <v>0.375</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C17" s="12">
         <v>0.4375</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E17" s="13">
         <v>90</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+    <row r="18" spans="1:6" ht="13.8">
+      <c r="A18" s="29">
+        <v>43746</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>75</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8">
+      <c r="A19" s="29">
+        <v>43748</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D19" s="21">
+        <v>30</v>
+      </c>
+      <c r="E19" s="25">
+        <v>45</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
+      <c r="A20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B20" s="12">
         <v>0.875</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E20" s="13">
         <v>180</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="15" t="s">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B21" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C21" s="12">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E21" s="13">
         <v>40</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F21" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
-      <c r="A17" s="15" t="s">
+    <row r="22" spans="1:6" ht="13.8">
+      <c r="A22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B22" s="12">
         <v>0.75</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C22" s="12">
         <v>0.8125</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E22" s="13">
         <v>90</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F22" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="A18" s="15" t="s">
+    <row r="23" spans="1:6" ht="13.8">
+      <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B23" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C23" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E23" s="13">
         <v>120</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F23" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
-      <c r="A19" s="15" t="s">
+    <row r="24" spans="1:6" ht="13.8">
+      <c r="A24" s="29">
+        <v>43753</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="21">
+        <v>15</v>
+      </c>
+      <c r="E24" s="25">
+        <v>60</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="29">
+        <v>43755</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>75</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8">
+      <c r="A26" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B26" s="12">
         <v>0.75</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C26" s="12">
         <v>0.875</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D26" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E26" s="13">
         <v>180</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F26" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B27" s="12">
         <v>0.75</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C27" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D27" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E27" s="13">
         <v>120</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F27" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="15" t="s">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B28" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C28" s="12">
         <v>0.5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E28" s="13">
         <v>120</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F28" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
-      <c r="A22" s="15" t="s">
+    <row r="29" spans="1:6" ht="13.8">
+      <c r="A29" s="29">
+        <v>43769</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>75</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8">
+      <c r="A30" s="29">
+        <v>43774</v>
+      </c>
+      <c r="B30" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>75</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8">
+      <c r="A31" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B31" s="12">
         <v>0.5</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C31" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E31" s="13">
         <v>60</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F31" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
-      <c r="A23" s="15" t="s">
+    <row r="32" spans="1:6" ht="13.8">
+      <c r="A32" s="29">
+        <v>43776</v>
+      </c>
+      <c r="B32" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>75</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8">
+      <c r="A33" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B33" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C33" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D33" s="8">
         <v>180</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E33" s="13">
         <v>300</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F33" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+    <row r="34" spans="1:6" ht="13.8">
+      <c r="A34" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B34" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C34" s="12">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E34" s="13">
         <v>60</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F34" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
-      <c r="A25" s="15" t="s">
+    <row r="35" spans="1:6" ht="13.8">
+      <c r="A35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B35" s="12">
         <v>0.75</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C35" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E35" s="13">
         <v>300</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F35" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+    <row r="36" spans="1:6" ht="13.8">
+      <c r="A36" s="29">
+        <v>43781</v>
+      </c>
+      <c r="B36" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D36" s="21">
+        <v>40</v>
+      </c>
+      <c r="E36" s="25">
+        <v>35</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.8">
+      <c r="A37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B37" s="12">
         <v>0.6875</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C37" s="12">
         <v>0.9375</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D37" s="8">
         <v>30</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E37" s="13">
         <v>330</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F37" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B38" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C38" s="12">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D38" s="8">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E38" s="13">
         <v>270</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F38" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
-      <c r="A28" s="15" t="s">
+    <row r="39" spans="1:6" ht="15.6">
+      <c r="A39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>210</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="16">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="D28" s="11">
+    </row>
+    <row r="40" spans="1:6" ht="13.8">
+      <c r="A40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E28" s="17">
-        <v>210</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="13">
+        <v>240</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D41" s="8">
+        <v>30</v>
+      </c>
+      <c r="E41" s="13">
+        <v>300</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D42" s="8">
+        <v>90</v>
+      </c>
+      <c r="E42" s="13">
+        <v>510</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D43" s="8">
+        <v>90</v>
+      </c>
+      <c r="E43" s="13">
+        <v>330</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>60</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="4:5" ht="15" customHeight="1">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="4:5" ht="15" customHeight="1">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="4:5" ht="15" customHeight="1">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="4:5" ht="15" customHeight="1">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="4:5" ht="15" customHeight="1">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="4:5" ht="15" customHeight="1">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="4:5" ht="15" customHeight="1">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="4:5" ht="15" customHeight="1">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="4:5" ht="15" customHeight="1">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="4:5" ht="15" customHeight="1">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F404A-3B1B-4BF4-AE79-547BCA4BF245}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1986C-D252-4C58-AFBE-971F83C929BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2744,6 +2744,194 @@
       <t>수정</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 28일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화약약품 msds에서 끌어오는 웹크롤러 추가적으로 필요한 데이터 뽑을 수 있게 업데이트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apparatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당기기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 맞는 예약 뽑아서 화면에 띄우기 ' 백엔드랑 연결하기 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹크롤러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업데이트 및 Apparatus기능 '기기 추가 삭제' 백엔드 연결 중 오류 해결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apparatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드 백엔드로 연결하는 코드 추가 (모여서)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apparatus 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2850,7 +3038,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2888,6 +3076,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2895,7 +3094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2959,6 +3158,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3272,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4131,44 +4331,104 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D45" s="8">
+        <v>150</v>
+      </c>
+      <c r="E45" s="13">
+        <v>330</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D46" s="8">
+        <v>30</v>
+      </c>
+      <c r="E46" s="13">
+        <v>240</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D47" s="8">
+        <v>80</v>
+      </c>
+      <c r="E47" s="13">
+        <v>390</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D48" s="8">
+        <v>30</v>
+      </c>
+      <c r="E48" s="8">
+        <v>390</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>150</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
       <c r="A50" s="30"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1986C-D252-4C58-AFBE-971F83C929BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F404A-3B1B-4BF4-AE79-547BCA4BF245}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2744,194 +2744,6 @@
       <t>수정</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 26일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 27일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 28일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 30일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 1일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화약약품 msds에서 끌어오는 웹크롤러 추가적으로 필요한 데이터 뽑을 수 있게 업데이트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apparatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당기기에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 맞는 예약 뽑아서 화면에 띄우기 ' 백엔드랑 연결하기 </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹크롤러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 업데이트 및 Apparatus기능 '기기 추가 삭제' 백엔드 연결 중 오류 해결</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apparatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프론트엔드 백엔드로 연결하는 코드 추가 (모여서)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apparatus 기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3038,7 +2850,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3076,17 +2888,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3094,7 +2895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3158,7 +2959,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3472,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4331,104 +4131,44 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A45" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="12">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C45" s="12">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D45" s="8">
-        <v>150</v>
-      </c>
-      <c r="E45" s="13">
-        <v>330</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>82</v>
-      </c>
+      <c r="A45" s="28"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A46" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="12">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C46" s="12">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D46" s="8">
-        <v>30</v>
-      </c>
-      <c r="E46" s="13">
-        <v>240</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="12">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="C47" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D47" s="8">
-        <v>80</v>
-      </c>
-      <c r="E47" s="13">
-        <v>390</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="A47" s="28"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D48" s="8">
-        <v>30</v>
-      </c>
-      <c r="E48" s="8">
-        <v>390</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>81</v>
-      </c>
+      <c r="A48" s="28"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A49" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C49" s="12">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8">
-        <v>150</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="A49" s="30"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
       <c r="A50" s="30"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1986C-D252-4C58-AFBE-971F83C929BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF2D43-AC99-4B55-A70E-771459D9E892}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2930,6 +2930,229 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약삭제 fetch, 그로 생기는 오류(화면 업데이트 반영 실패) 해결, 기기 변경 오류 해결</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>코딩팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모여서 각자 코딩해온것 결합하고 오류 해결 논의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 5일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 결과물 확인 및 수업시간에 다큐팀과 기능 논의 및 추가기능 해결</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">월 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>6일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기 기능 완벽 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크롤러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 오류 해결 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 디자인 구현 시작(모여서) </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>apparatus 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 전반적인 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS 디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 크롤러 완성</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3472,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4431,36 +4654,136 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="8">
+        <v>210</v>
+      </c>
+      <c r="E50" s="8">
+        <v>330</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D51" s="8">
+        <v>30</v>
+      </c>
+      <c r="E51" s="8">
+        <v>210</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D52" s="8">
+        <v>30</v>
+      </c>
+      <c r="E52" s="8">
+        <v>330</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>60</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>300</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>600</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="D57" s="2"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF2D43-AC99-4B55-A70E-771459D9E892}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1986C-D252-4C58-AFBE-971F83C929BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2930,229 +2930,6 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 3일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약삭제 fetch, 그로 생기는 오류(화면 업데이트 반영 실패) 해결, 기기 변경 오류 해결</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>코딩팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 모여서 각자 코딩해온것 결합하고 오류 해결 논의</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 5일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링 결과물 확인 및 수업시간에 다큐팀과 기능 논의 및 추가기능 해결</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">월 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>6일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기기 기능 완벽 구현</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 7일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 8일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>크롤러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 오류 해결 및 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 디자인 구현 시작(모여서) </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 9일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>apparatus 및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 전반적인 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS 디자인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 및 크롤러 완성</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3695,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4654,136 +4431,36 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A50" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="C50" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D50" s="8">
-        <v>210</v>
-      </c>
-      <c r="E50" s="8">
-        <v>330</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="A50" s="30"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A51" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="C51" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D51" s="8">
-        <v>30</v>
-      </c>
-      <c r="E51" s="8">
-        <v>210</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A52" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="C52" s="12">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D52" s="8">
-        <v>30</v>
-      </c>
-      <c r="E52" s="8">
-        <v>330</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A53" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="12">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C53" s="12">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>60</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A54" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C54" s="12">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0</v>
-      </c>
-      <c r="E54" s="8">
-        <v>300</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A55" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C55" s="12">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8">
-        <v>600</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A56" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="D57" s="2"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1986C-D252-4C58-AFBE-971F83C929BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019CBFE-79DE-49F9-8B44-B5E518918B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,15 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2930,6 +2938,235 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제 백앤드와 fetch, 그로 생기는 오류 해결, 기기 변경시 생기는 오류 해결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩팀 모여서 진행상황 공유 및 크롤러 수정, 개발 마저 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 5일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>다큐팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 크롤러 결과를 가지고 상황 맞춰보기, apparatus 코드 오류 수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 6일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤러 마지막 수정, apparatus CSS디자인 마무리 및 alarm 과 my group도 양식에 맞추어 디자인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chemical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 전체 양식에 맞게 디자인 업데이트 및 전체 디자인 수정,  apparatus GUI 영상촬영,  PMP 업데이트, </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이니셜 데이터 셋 에서 커버하지 못한 apparatus 기능 완벽 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSS디자인을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 CSS공부, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">apparatus CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현 시작 및 기타 오류 해결</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2944,7 +3181,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3029,6 +3266,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3038,7 +3289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3087,6 +3338,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3094,7 +3358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3159,6 +3423,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3470,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4431,40 +4719,149 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="C50" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="34">
+        <v>180</v>
+      </c>
+      <c r="E50" s="34">
+        <v>300</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="38">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="36">
+        <v>240</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0.5625</v>
+      </c>
+      <c r="C52" s="38">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D52" s="36">
+        <v>30</v>
+      </c>
+      <c r="E52" s="36">
+        <v>390</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C53" s="38">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <v>360</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C54" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+      <c r="E54" s="36">
+        <v>360</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="42">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C55" s="38">
+        <v>1</v>
+      </c>
+      <c r="D55" s="36">
+        <v>40</v>
+      </c>
+      <c r="E55" s="36">
+        <v>560</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="38">
+        <v>0</v>
+      </c>
+      <c r="C56" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D56" s="36">
+        <v>270</v>
+      </c>
+      <c r="E56" s="36">
+        <v>390</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A57" s="41"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="D58" s="2"/>
@@ -4685,6 +5082,9 @@
     <row r="112" spans="4:5" ht="15" customHeight="1">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
+    </row>
+    <row r="1048576" spans="4:4" ht="15" customHeight="1">
+      <c r="D1048576" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/PSP/20160366 김지수 PSP.xlsx
+++ b/PSP/20160366 김지수 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F404A-3B1B-4BF4-AE79-547BCA4BF245}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019CBFE-79DE-49F9-8B44-B5E518918B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,15 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2744,6 +2752,423 @@
       <t>수정</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 28일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화약약품 msds에서 끌어오는 웹크롤러 추가적으로 필요한 데이터 뽑을 수 있게 업데이트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apparatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당기기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 맞는 예약 뽑아서 화면에 띄우기 ' 백엔드랑 연결하기 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹크롤러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업데이트 및 Apparatus기능 '기기 추가 삭제' 백엔드 연결 중 오류 해결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apparatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드 백엔드로 연결하는 코드 추가 (모여서)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apparatus 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기기 데이터 백엔드에서 불러와서 날짜별 기기별 데이터 바뀌게 연결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제 백앤드와 fetch, 그로 생기는 오류 해결, 기기 변경시 생기는 오류 해결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩팀 모여서 진행상황 공유 및 크롤러 수정, 개발 마저 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 5일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>다큐팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 크롤러 결과를 가지고 상황 맞춰보기, apparatus 코드 오류 수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 6일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤러 마지막 수정, apparatus CSS디자인 마무리 및 alarm 과 my group도 양식에 맞추어 디자인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chemical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 전체 양식에 맞게 디자인 업데이트 및 전체 디자인 수정,  apparatus GUI 영상촬영,  PMP 업데이트, </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이니셜 데이터 셋 에서 커버하지 못한 apparatus 기능 완벽 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSS디자인을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 CSS공부, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">apparatus CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현 시작 및 기타 오류 해결</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2756,7 +3181,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2841,6 +3266,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2850,7 +3289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2888,6 +3327,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2895,7 +3358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2957,6 +3420,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3270,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4131,80 +4619,249 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D45" s="8">
+        <v>150</v>
+      </c>
+      <c r="E45" s="13">
+        <v>330</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D46" s="8">
+        <v>30</v>
+      </c>
+      <c r="E46" s="13">
+        <v>240</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D47" s="8">
+        <v>80</v>
+      </c>
+      <c r="E47" s="13">
+        <v>390</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D48" s="8">
+        <v>30</v>
+      </c>
+      <c r="E48" s="8">
+        <v>390</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>150</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="C50" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="34">
+        <v>180</v>
+      </c>
+      <c r="E50" s="34">
+        <v>300</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="38">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="36">
+        <v>240</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0.5625</v>
+      </c>
+      <c r="C52" s="38">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D52" s="36">
+        <v>30</v>
+      </c>
+      <c r="E52" s="36">
+        <v>390</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C53" s="38">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <v>360</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C54" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+      <c r="E54" s="36">
+        <v>360</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="42">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C55" s="38">
+        <v>1</v>
+      </c>
+      <c r="D55" s="36">
+        <v>40</v>
+      </c>
+      <c r="E55" s="36">
+        <v>560</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="38">
+        <v>0</v>
+      </c>
+      <c r="C56" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D56" s="36">
+        <v>270</v>
+      </c>
+      <c r="E56" s="36">
+        <v>390</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A57" s="41"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="D58" s="2"/>
@@ -4425,6 +5082,9 @@
     <row r="112" spans="4:5" ht="15" customHeight="1">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
+    </row>
+    <row r="1048576" spans="4:4" ht="15" customHeight="1">
+      <c r="D1048576" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
